--- a/biology/Botanique/Jean-Charles_Nicolas_de_Larminat/Jean-Charles_Nicolas_de_Larminat.xlsx
+++ b/biology/Botanique/Jean-Charles_Nicolas_de_Larminat/Jean-Charles_Nicolas_de_Larminat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Charles Nicolas, baron de Larminat, né le 13 juin 1777 à Verdun et mort le 9 octobre 1840 à Compiègne, est un forestier et homme politique français.
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jean-Charles Nicolas de Larminat naît le 13 juin 1777 à Verdun. Il est fils et petit-fils de commissaires des guerres et arsenaux. Appelé à service l’armée par la conscription, il participe aux affrontements dans le cadre de l’invasion anglo-russe de la Hollande et la seconde campagne d’Italie. La paix d'Amiens en 1802, il s’intéresse à la botanique et achète la charge de garde général à Verdun. Il évolue ensuite dans l’administration forestière : nommé garde général puis sous-inspecteur à Fontainebleau ; inspecteur à Rambouillet ; inspecteur à Fontainebleau. Dans cette dernière ville, il devient par ailleurs adjoint puis maire[1]. En 1830, il permute avec son beau-frère Achille Marrier de Boisd'hyver pour convenances personnelles et devient ainsi inspecteur à Compiègne, où il décède le 9 octobre 1840[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jean-Charles Nicolas de Larminat naît le 13 juin 1777 à Verdun. Il est fils et petit-fils de commissaires des guerres et arsenaux. Appelé à service l’armée par la conscription, il participe aux affrontements dans le cadre de l’invasion anglo-russe de la Hollande et la seconde campagne d’Italie. La paix d'Amiens en 1802, il s’intéresse à la botanique et achète la charge de garde général à Verdun. Il évolue ensuite dans l’administration forestière : nommé garde général puis sous-inspecteur à Fontainebleau ; inspecteur à Rambouillet ; inspecteur à Fontainebleau. Dans cette dernière ville, il devient par ailleurs adjoint puis maire. En 1830, il permute avec son beau-frère Achille Marrier de Boisd'hyver pour convenances personnelles et devient ainsi inspecteur à Compiègne, où il décède le 9 octobre 1840,.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Vie familiale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1807, de Larminat épouse la fille de Jean-Victor Marrier de Boisd’hyver. Il donne naissance à dix enfants : deux filles et huit fils dont deux deviennent forestiers[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1807, de Larminat épouse la fille de Jean-Victor Marrier de Boisd’hyver. Il donne naissance à dix enfants : deux filles et huit fils dont deux deviennent forestiers.
 </t>
         </is>
       </c>
